--- a/trend_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
+++ b/trend_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.100022527254665</v>
+        <v>0.899977472745335</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0001503112308555</v>
+        <v>0.999849688769144</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0021814796852398</v>
+        <v>0.99781852031476</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.996882515491468</v>
+        <v>0.003117484508532</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2891,6 +2891,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.621879866129774</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.582278481012658</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.08692518418215971</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.806037317256866</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.332347588717015</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.377935583400695</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.648170578286461</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6942675159235669</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0066540229996321</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0150246935570625</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0239863068588283</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0656863079924197</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0003347606090066</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0061349693251533</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.343558282208589</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0008655213270142</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0004506231249619</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0012577205093029</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.98455630004903</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.951895011141056</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0858895705521472</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.325153374233129</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.499316473000684</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-1.36238177365629</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-3.12072795625427</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9998743039196279</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.138157894736842</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.999995455985232</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0001512109358932</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0002931380417335</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-7.56054679466085</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0213421480733006</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.862068965517241</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0037008443633044</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0010165085267984</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0067481772944859</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.48033774532177</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.375513474495785</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.635220125786163</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0031258023106546</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0171542625277229</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0109433475761574</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.0411289777717722</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0326028518898902</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.705521472392638</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0018995170876671</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0002263139032808</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0042504130358471</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.727784324776691</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.796665123501455</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.386503067484663</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0022204036359289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.769890161181669</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.331288343558282</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0001170673076923</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0004817887968848</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0001580810628123</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.344315610859728</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5974938441616769</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.785276073619632</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0033234758871701</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0263908612125769</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0199580207577382</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.229205233597939</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
+++ b/trend_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.999857440958184</v>
+        <v>0.9997428138759989</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.736842105263158</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.18205299960789</v>
+        <v>-3.83277449006473</v>
       </c>
       <c r="L2" t="n">
-        <v>-10.9393497152487</v>
+        <v>-5.99562867188058</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.7313525689227</v>
+        <v>-2.63665760912445</v>
       </c>
       <c r="N2" t="n">
-        <v>-23.5547863618541</v>
+        <v>-24.7275773552563</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.899977472745335</v>
+        <v>0.796491986364313</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.23</v>
+        <v>10.28</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0367925824175824</v>
+        <v>0.0366647564219218</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0191728618567228</v>
+        <v>-0.010034340659341</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07687836251685259</v>
+        <v>0.0589228937702921</v>
       </c>
       <c r="N3" t="n">
-        <v>0.359653787073141</v>
+        <v>0.356661054687956</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0158028550940374</v>
+        <v>0.177043899911417</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.568965517241379</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.031</v>
+        <v>0.0275</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0032386699507389</v>
+        <v>0.0009154135338344999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006370732346613999</v>
+        <v>-0.0007175090725248</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0053401752297009</v>
+        <v>0.0028786427645377</v>
       </c>
       <c r="N4" t="n">
-        <v>10.4473224217384</v>
+        <v>3.32877648667123</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.375509020222355</v>
+        <v>0.408211932296195</v>
       </c>
       <c r="G5" t="n">
         <v>0.103448275862069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.258620689655172</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.6670344085642</v>
+        <v>-1.21770643739952</v>
       </c>
       <c r="M5" t="n">
-        <v>2.05161775722545</v>
+        <v>1.33542539803029</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.96</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.91520971611919</v>
+        <v>0.999892279267519</v>
       </c>
       <c r="G7" t="n">
-        <v>0.568965517241379</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0031891092702292</v>
+        <v>0.967337279767713</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.896551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2485</v>
+        <v>0.245</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0132118818681319</v>
+        <v>-0.010479780798739</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0047853278025474</v>
+        <v>-0.0188611655477809</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0180956996182405</v>
+        <v>-0.0025715071222147</v>
       </c>
       <c r="N8" t="n">
-        <v>5.31665266323215</v>
+        <v>-4.27746155050571</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.999849688769144</v>
+        <v>0.925915732142957</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.87719298245614</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.5</v>
+        <v>7.57</v>
       </c>
       <c r="K9" t="n">
-        <v>0.183079653052296</v>
+        <v>0.0595555883764719</v>
       </c>
       <c r="L9" t="n">
-        <v>0.110141460430075</v>
+        <v>-0.009488311364993901</v>
       </c>
       <c r="M9" t="n">
-        <v>0.263946270613835</v>
+        <v>0.13564631864309</v>
       </c>
       <c r="N9" t="n">
-        <v>2.44106204069728</v>
+        <v>0.786731682648242</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0019208707396734</v>
+        <v>0.930355317156576</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.810344827586207</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0.256</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0136514815541601</v>
+        <v>-0.0113268635055595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0067926139587441</v>
+        <v>-0.0190652472527472</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0185346004219037</v>
+        <v>6.30074894513122e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3326099820938</v>
+        <v>-4.42455605685919</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,46 +1361,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.313569060332783</v>
+        <v>0.726185506445343</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.344827586206897</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.32</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.0058533653846153</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.417481255062988</v>
+        <v>-0.0195553597575708</v>
       </c>
       <c r="M11" t="n">
-        <v>0.873565871270691</v>
+        <v>0.0050157702535728</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-1.82917668269231</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0011330897897793</v>
+        <v>0.0051103168380356</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.413793103448276</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.32</v>
+        <v>0.032</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0149081632653061</v>
+        <v>0.0017992610837438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0050171703296703</v>
+        <v>0.0005083321423039</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0198354649746173</v>
+        <v>0.0035223840324986</v>
       </c>
       <c r="N12" t="n">
-        <v>4.65880102040816</v>
+        <v>5.62269088669951</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.002141472456337</v>
+        <v>0.412482784417495</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.448275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.032</v>
+        <v>1.455</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0034403453689168</v>
+        <v>0.0199910037931977</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0010913373292378</v>
+        <v>-0.0759778225639002</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0059917169870004</v>
+        <v>0.105295996339627</v>
       </c>
       <c r="N13" t="n">
-        <v>10.751079277865</v>
+        <v>1.37395215073524</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.412482784417495</v>
+        <v>0.998179270313913</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.948275862068966</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.465</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0198154411385994</v>
+        <v>-1.82791173794358</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.120178449249998</v>
+        <v>-3.17606321696812</v>
       </c>
       <c r="M14" t="n">
-        <v>0.107761501932667</v>
+        <v>-0.819078340885665</v>
       </c>
       <c r="N14" t="n">
-        <v>1.35258983881225</v>
+        <v>-9.139558689717919</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.985898790421165</v>
+        <v>0.997411688647154</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.634782608695652</v>
+        <v>0.773913043478261</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>10.15</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.50034230944774</v>
+        <v>0.0366360182370821</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.43714375733768</v>
+        <v>0.0181635144035714</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.354178455148631</v>
+        <v>0.0487886721159473</v>
       </c>
       <c r="N15" t="n">
-        <v>-6.52322743238148</v>
+        <v>0.360945992483567</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.99781852031476</v>
+        <v>0.755378145250295</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.756521739130435</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.11</v>
+        <v>0.03</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0355258358662612</v>
+        <v>-0.0002138466042154</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0200363346606995</v>
+        <v>-0.0007730158730158</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0501120859263764</v>
+        <v>0.0003068975771284</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351393035274592</v>
+        <v>-0.71282201405152</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1907,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.700617701993108</v>
+        <v>0.911445354963011</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H17" t="n">
-        <v>0.372881355932203</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.032</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0001445389790265</v>
+        <v>-0.166704701049749</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0008696428571428</v>
+        <v>-1.33235503904586</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0004165758527849</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.451684309457856</v>
+        <v>-1.04190438156093</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,47 +1998,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.833661660780903</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.09322033898305079</v>
+        <v>0.972477064220184</v>
       </c>
       <c r="H18" t="n">
-        <v>0.228813559322034</v>
+        <v>0.036697247706422</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>16</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-1.33254515547383</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2046,7 +2034,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2065,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2077,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2088,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.951670644919809</v>
+        <v>0.999999830327617</v>
       </c>
       <c r="G19" t="n">
-        <v>0.944954128440367</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06422018348623849</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.0015</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0001188191281717</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0002608928571428</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-7.92127521145088</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2125,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,46 +2168,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.999999075433583</v>
+        <v>0.0052108144607312</v>
       </c>
       <c r="G20" t="n">
-        <v>0.372881355932203</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.110169491525424</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002</v>
+        <v>0.2321</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.000187019969278</v>
+        <v>0.0057977524120616</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0003164476909827</v>
+        <v>0.0017429842639082</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0087373310109863</v>
       </c>
       <c r="N20" t="n">
-        <v>-9.350998463901689</v>
+        <v>2.4979545075664</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,14 +2259,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2286,31 +2274,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.16772976401094e-06</v>
+        <v>0.195775161920462</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.88135593220339</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.241</v>
+        <v>7.605</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0097707196994</v>
+        <v>-0.009217398309016901</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0068162954320403</v>
+        <v>-0.0219271445013639</v>
       </c>
       <c r="M21" t="n">
-        <v>0.012263592628286</v>
+        <v>0.008624557260921</v>
       </c>
       <c r="N21" t="n">
-        <v>4.05424053917016</v>
+        <v>-0.121201818659</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2348,11 +2336,7 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2362,14 +2346,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2361,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.003117484508532</v>
+        <v>0.0027297302589094</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.646551724137931</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.63</v>
+        <v>0.24245</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0263528138528138</v>
+        <v>0.0065877656186475</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0406963257433924</v>
+        <v>0.0015161804305109</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0110044830493807</v>
+        <v>0.0093659370261943</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.345384192042121</v>
+        <v>2.71716461895133</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2394,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,7 +2423,11 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2449,7 +2437,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2460,35 +2448,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.81432376126144e-06</v>
+        <v>0.394695198483535</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.669491525423729</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.255</v>
+        <v>0.319</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0098497358433942</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0077874812841081</v>
+        <v>-0.0007726597695445</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0123287318846357</v>
+        <v>0.0024965823650034</v>
       </c>
       <c r="N23" t="n">
-        <v>3.86264150721342</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2497,7 +2485,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,46 +2528,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0428169967014101</v>
+        <v>0.569390812618075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.220338983050847</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.033</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0311327991817252</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0003840596799639</v>
       </c>
       <c r="M24" t="n">
-        <v>0.250256937307297</v>
+        <v>0.0003240257851817</v>
       </c>
       <c r="N24" t="n">
-        <v>0.622655983634504</v>
+        <v>0</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2588,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2619,7 +2607,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.243798490214126</v>
+        <v>0.6343121150946111</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.449152542372881</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.32</v>
+        <v>1.435</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001245311967269</v>
+        <v>-0.0089524848107181</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0002496582365003</v>
+        <v>-0.0425058407271046</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0033406332546383</v>
+        <v>0.030103021978022</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0389159989771565</v>
+        <v>-0.623866537332278</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2698,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2722,46 +2710,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.646235795998487</v>
+        <v>0.916138124666129</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.305084745762712</v>
+        <v>0.582352941176471</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.034</v>
+        <v>21.75</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.453029416862955</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0005336033652043</v>
+        <v>-1.08703805783276</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0003530695705889</v>
+        <v>0.0606276068748545</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-2.08289387063428</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2813,11 +2801,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2828,31 +2816,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.345909660548462</v>
+        <v>0.978637180775209</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8389830508474579</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.45</v>
+        <v>10.11</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0140133510145226</v>
+        <v>0.0233138297872339</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0286394800899877</v>
+        <v>0.0042693032898617</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0440987232626255</v>
+        <v>0.0376396598175848</v>
       </c>
       <c r="N27" t="n">
-        <v>0.96643800100156</v>
+        <v>0.230601679398951</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2904,46 +2892,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.130553692342183</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.006060606060606</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.339393939393939</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.621879866129774</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.582278481012658</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>23</v>
+        <v>0.029</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.08692518418215971</v>
+        <v>0.0002852401840603</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.806037317256866</v>
+        <v>-0.0001039922553639</v>
       </c>
       <c r="M28" t="n">
-        <v>0.332347588717015</v>
+        <v>0.0006795233827459</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.377935583400695</v>
+        <v>0.983586841587257</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2983,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3006,35 +2994,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.648170578286461</v>
+        <v>0.922887065555036</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0787878787878788</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6942675159235669</v>
+        <v>0.309090909090909</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.13</v>
+        <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0066540229996321</v>
+        <v>-0.199726772096061</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0150246935570625</v>
+        <v>-1.08810822033867</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0239863068588283</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0656863079924197</v>
+        <v>-1.24829232560038</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3097,35 +3085,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0003347606090066</v>
+        <v>0.999998931570714</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0061349693251533</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="H30" t="n">
-        <v>0.343558282208589</v>
+        <v>0.135483870967742</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.029</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0008655213270142</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0004506231249619</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0012577205093029</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.98455630004903</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,14 +3165,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3192,31 +3180,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.951895011141056</v>
+        <v>0.9999999899393039</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0858895705521472</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="H31" t="n">
-        <v>0.325153374233129</v>
+        <v>0.102564102564103</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>16</v>
+        <v>0.002</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.499316473000684</v>
+        <v>-0.0001564268519155</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.36238177365629</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.12072795625427</v>
+        <v>-7.82134259577687</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3256,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9998743039196279</v>
+        <v>0.163012019252531</v>
       </c>
       <c r="G32" t="n">
-        <v>0.868421052631579</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.138157894736842</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.2445</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0015542553191489</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0011417424627603</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0039331937560527</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.63568724709568</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3358,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.999995455985232</v>
+        <v>0.144822161742494</v>
       </c>
       <c r="G33" t="n">
-        <v>0.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.111111111111111</v>
+        <v>0.617283950617284</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002</v>
+        <v>7.61</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0001512109358932</v>
+        <v>-0.0086517962889854</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002931380417335</v>
+        <v>-0.0203308990880383</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0044414105880404</v>
       </c>
       <c r="N33" t="n">
-        <v>-7.56054679466085</v>
+        <v>-0.113689832969585</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,11 +3424,7 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,7 +3434,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3465,31 +3449,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0213421480733006</v>
+        <v>0.153794079609864</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.862068965517241</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>0.256</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0037008443633044</v>
+        <v>0.0007604235795037</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0010165085267984</v>
+        <v>-0.0011053559533313</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0067481772944859</v>
+        <v>0.0029949314540368</v>
       </c>
       <c r="N34" t="n">
-        <v>1.48033774532177</v>
+        <v>0.297040460743649</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3482,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3513,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3525,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.375513474495785</v>
+        <v>0.748439358291379</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.635220125786163</v>
+        <v>0.375757575757576</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.6</v>
+        <v>0.33</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0031258023106546</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0171542625277229</v>
+        <v>-0.0022206068783041</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0109433475761574</v>
+        <v>0.0003333058394939</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0411289777717722</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3573,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,7 +3602,11 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3628,7 +3616,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,31 +3631,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0326028518898902</v>
+        <v>0.89217193983746</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.705521472392638</v>
+        <v>0.327272727272727</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.261</v>
+        <v>0.034</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0018995170876671</v>
+        <v>-0.0002494026427441</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0002263139032808</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0042504130358471</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.727784324776691</v>
+        <v>-0.733537184541672</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3676,7 +3664,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3719,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3730,35 +3718,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.796665123501455</v>
+        <v>0.435674721784239</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.386503067484663</v>
+        <v>0.775757575757576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.33</v>
+        <v>1.39</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.0024936880728454</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0022204036359289</v>
+        <v>-0.0199626766000346</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0211933649383843</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.179402019629166</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3767,7 +3755,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3798,7 +3786,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3810,11 +3798,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3825,31 +3813,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.769890161181669</v>
+        <v>0.0054660091495841</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.010989010989011</v>
       </c>
       <c r="H38" t="n">
-        <v>0.331288343558282</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0001170673076923</v>
+        <v>0.0004890493496557</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0004817887968848</v>
+        <v>0.0001702061053911</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0001580810628123</v>
+        <v>0.0008152901785714001</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.344315610859728</v>
+        <v>1.74660482019893</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3889,7 +3877,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3901,46 +3889,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5974938441616769</v>
+        <v>0.958189398607231</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0824175824175824</v>
       </c>
       <c r="H39" t="n">
-        <v>0.785276073619632</v>
+        <v>0.302197802197802</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.45</v>
+        <v>16</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0033234758871701</v>
+        <v>-0.372957794417971</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0263908612125769</v>
+        <v>-1.00616689360004</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0199580207577382</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.229205233597939</v>
+        <v>-2.33098621511232</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3937,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3979,6 +3967,370 @@
         </is>
       </c>
       <c r="W39" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.999918000203232</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.87719298245614</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.128654970760234</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.324813742129806</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.847560975609756</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2485</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0006987089115976</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0015487314368698</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0021108925038023</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.281170588168052</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.358672877105075</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.758241758241758</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.001560736630834</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0015177441514293</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0780929289819377</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.384997302840302</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0025085851648351</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0149814076358446</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0200024743365847</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.180473752865839</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
+++ b/trend_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -127,15 +127,12 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
@@ -145,43 +142,49 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -654,44 +657,44 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.9997428138759989</v>
+        <v>0.940125668597758</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.76271186440678</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="K2">
-        <v>-3.83277449006473</v>
+        <v>-1.7529503651836</v>
       </c>
       <c r="L2">
-        <v>-5.99562867188058</v>
+        <v>-3.68172019495655</v>
       </c>
       <c r="M2">
-        <v>-2.63665760912445</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-24.7275773552563</v>
+        <v>-14.0236029214688</v>
       </c>
       <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q2">
         <v>1828759</v>
       </c>
@@ -699,19 +702,19 @@
         <v>5628633</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,37 +734,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.796491986364313</v>
+        <v>0.29887292785152</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8947368421052631</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.28</v>
+        <v>10.23</v>
       </c>
       <c r="K3">
-        <v>0.0366647564219218</v>
+        <v>-0.0198793541364301</v>
       </c>
       <c r="L3">
-        <v>-0.010034340659341</v>
+        <v>-0.0595341793595744</v>
       </c>
       <c r="M3">
-        <v>0.0589228937702921</v>
+        <v>0.0390087146098651</v>
       </c>
       <c r="N3">
-        <v>0.356661054687956</v>
+        <v>-0.194324087355133</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1828759</v>
@@ -770,19 +773,19 @@
         <v>5628633</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,37 +805,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.177043899911417</v>
+        <v>0.0027685876897167</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.586206896551724</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0275</v>
+        <v>0.026</v>
       </c>
       <c r="K4">
-        <v>0.0009154135338344999</v>
+        <v>0.0020871428571428</v>
       </c>
       <c r="L4">
-        <v>-0.0007175090725248</v>
+        <v>0.0009620620551385</v>
       </c>
       <c r="M4">
-        <v>0.0028786427645377</v>
+        <v>0.0035229920032443</v>
       </c>
       <c r="N4">
-        <v>3.32877648667123</v>
+        <v>8.027472527472529</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1828759</v>
@@ -841,19 +844,19 @@
         <v>5628633</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,43 +870,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.408211932296195</v>
+        <v>0.0391048208177802</v>
       </c>
       <c r="G5">
-        <v>0.103448275862069</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H5">
-        <v>0.241379310344828</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.90565217391304</v>
       </c>
       <c r="L5">
-        <v>-1.21770643739952</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.33542539803029</v>
+        <v>4.37522669341168</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.9103260869565</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1828759</v>
@@ -912,19 +915,19 @@
         <v>5628633</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>0.962264150943396</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="H6">
-        <v>0.0566037735849057</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1828759</v>
@@ -965,19 +968,19 @@
         <v>5628633</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -994,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.999892279267519</v>
+        <v>0.999997347364147</v>
       </c>
       <c r="G7">
-        <v>0.637931034482759</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="H7">
         <v>0.0689655172413793</v>
@@ -1024,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1828759</v>
@@ -1036,19 +1039,19 @@
         <v>5628633</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,34 +1071,34 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.967337279767713</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.913793103448276</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="K8">
-        <v>-0.010479780798739</v>
+        <v>-0.0016305803571428</v>
       </c>
       <c r="L8">
-        <v>-0.0188611655477809</v>
+        <v>-0.0099651069956741</v>
       </c>
       <c r="M8">
-        <v>-0.0025715071222147</v>
+        <v>0.0055449666260397</v>
       </c>
       <c r="N8">
-        <v>-4.27746155050571</v>
+        <v>-0.652232142857143</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>48</v>
@@ -1107,19 +1110,19 @@
         <v>5628633</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1139,37 +1142,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.925915732142957</v>
+        <v>0.324694711292978</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.842105263157895</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.57</v>
+        <v>7.61</v>
       </c>
       <c r="K9">
-        <v>0.0595555883764719</v>
+        <v>-0.0101327165481581</v>
       </c>
       <c r="L9">
-        <v>-0.009488311364993901</v>
+        <v>-0.0391034369227901</v>
       </c>
       <c r="M9">
-        <v>0.13564631864309</v>
+        <v>0.0302756439782792</v>
       </c>
       <c r="N9">
-        <v>0.786731682648242</v>
+        <v>-0.133150020343733</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q9">
         <v>1828759</v>
@@ -1178,16 +1181,16 @@
         <v>5628633</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1207,13 +1210,13 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.930355317156576</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1222,22 +1225,22 @@
         <v>0.256</v>
       </c>
       <c r="K10">
-        <v>-0.0113268635055595</v>
+        <v>-0.0001683179723502</v>
       </c>
       <c r="L10">
-        <v>-0.0190652472527472</v>
+        <v>-0.012209228763079</v>
       </c>
       <c r="M10">
-        <v>6.30074894513122E-05</v>
+        <v>0.0053532102734106</v>
       </c>
       <c r="N10">
-        <v>-4.42455605685919</v>
+        <v>-0.0657492079493088</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1828759</v>
@@ -1246,19 +1249,19 @@
         <v>5628633</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1275,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.726185506445343</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.396551724137931</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1293,22 +1296,22 @@
         <v>0.32</v>
       </c>
       <c r="K11">
-        <v>-0.0058533653846153</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0195553597575708</v>
+        <v>-0.0099390928670466</v>
       </c>
       <c r="M11">
-        <v>0.0050157702535728</v>
+        <v>0.0099706399065325</v>
       </c>
       <c r="N11">
-        <v>-1.82917668269231</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1828759</v>
@@ -1317,19 +1320,19 @@
         <v>5628633</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,13 +1352,13 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0051103168380356</v>
+        <v>0.0088333197172969</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.431034482758621</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1364,22 +1367,22 @@
         <v>0.032</v>
       </c>
       <c r="K12">
-        <v>0.0017992610837438</v>
+        <v>0.0013852718078381</v>
       </c>
       <c r="L12">
-        <v>0.0005083321423039</v>
+        <v>0.0004193494079133</v>
       </c>
       <c r="M12">
-        <v>0.0035223840324986</v>
+        <v>0.0025606031192302</v>
       </c>
       <c r="N12">
-        <v>5.62269088669951</v>
+        <v>4.32897439949431</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1828759</v>
@@ -1388,19 +1391,19 @@
         <v>5628633</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1414,13 +1417,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.412482784417495</v>
+        <v>0.905725483794378</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1432,26 +1435,26 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.455</v>
+        <v>1.365</v>
       </c>
       <c r="K13">
-        <v>0.0199910037931977</v>
+        <v>-0.08075255102040819</v>
       </c>
       <c r="L13">
-        <v>-0.0759778225639002</v>
+        <v>-0.159762120312099</v>
       </c>
       <c r="M13">
-        <v>0.105295996339627</v>
+        <v>0.0204441505197757</v>
       </c>
       <c r="N13">
-        <v>1.37395215073524</v>
+        <v>-5.91593780369291</v>
       </c>
       <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
         <v>42</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
       <c r="Q13">
         <v>1828759</v>
       </c>
@@ -1459,19 +1462,19 @@
         <v>5628633</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,37 +1494,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.998179270313913</v>
+        <v>0.980227459212234</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.652173913043478</v>
+        <v>0.640350877192982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>-1.82791173794358</v>
+        <v>-0.94014251279232</v>
       </c>
       <c r="L14">
-        <v>-3.17606321696812</v>
+        <v>-1.83802856759673</v>
       </c>
       <c r="M14">
-        <v>-0.819078340885665</v>
+        <v>-0.216542794699376</v>
       </c>
       <c r="N14">
-        <v>-9.139558689717919</v>
+        <v>-6.2676167519488</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1828759</v>
@@ -1530,19 +1533,19 @@
         <v>5628633</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,37 +1565,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.997411688647154</v>
+        <v>0.997803799719064</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.773913043478261</v>
+        <v>0.765217391304348</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.15</v>
+        <v>10.18</v>
       </c>
       <c r="K15">
-        <v>0.0366360182370821</v>
+        <v>0.0324555707450442</v>
       </c>
       <c r="L15">
-        <v>0.0181635144035714</v>
+        <v>0.0129023538734328</v>
       </c>
       <c r="M15">
-        <v>0.0487886721159473</v>
+        <v>0.0448751033286214</v>
       </c>
       <c r="N15">
-        <v>0.360945992483567</v>
+        <v>0.318817001424796</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1828759</v>
@@ -1601,19 +1604,19 @@
         <v>5628633</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,40 +1633,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.755378145250295</v>
+        <v>0.349537326748218</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.347457627118644</v>
+        <v>0.330508474576271</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="K16">
-        <v>-0.0002138466042154</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0007730158730158</v>
+        <v>-0.0003633110864118</v>
       </c>
       <c r="M16">
-        <v>0.0003068975771284</v>
+        <v>0.0006133824250677</v>
       </c>
       <c r="N16">
-        <v>-0.71282201405152</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1828759</v>
@@ -1672,19 +1675,19 @@
         <v>5628633</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1701,16 +1704,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>0.911445354963011</v>
+        <v>0.457182828905658</v>
       </c>
       <c r="G17">
         <v>0.101694915254237</v>
       </c>
       <c r="H17">
-        <v>0.211864406779661</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1719,22 +1722,22 @@
         <v>16</v>
       </c>
       <c r="K17">
-        <v>-0.166704701049749</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-1.33235503904586</v>
+        <v>-0.591406618222688</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.636061138478423</v>
       </c>
       <c r="N17">
-        <v>-1.04190438156093</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>1828759</v>
@@ -1743,19 +1746,19 @@
         <v>5628633</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1772,22 +1775,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18">
-        <v>0.972477064220184</v>
+        <v>0.963302752293578</v>
       </c>
       <c r="H18">
-        <v>0.036697247706422</v>
+        <v>0.0458715596330275</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1828759</v>
@@ -1796,19 +1799,19 @@
         <v>5628633</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1825,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.999999830327617</v>
+        <v>0.999999977141698</v>
       </c>
       <c r="G19">
-        <v>0.474576271186441</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="H19">
         <v>0.101694915254237</v>
@@ -1840,25 +1843,25 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="K19">
-        <v>-0.0001188191281717</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0002608928571428</v>
+        <v>-0.0001512818417221</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-7.92127521145088</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1828759</v>
@@ -1867,19 +1870,19 @@
         <v>5628633</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1899,37 +1902,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0052108144607312</v>
+        <v>0.0001485520535199</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.872881355932203</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2321</v>
+        <v>0.243</v>
       </c>
       <c r="K20">
-        <v>0.0057977524120616</v>
+        <v>0.0065322354782603</v>
       </c>
       <c r="L20">
-        <v>0.0017429842639082</v>
+        <v>0.0038669937120542</v>
       </c>
       <c r="M20">
-        <v>0.0087373310109863</v>
+        <v>0.0093243664285693</v>
       </c>
       <c r="N20">
-        <v>2.4979545075664</v>
+        <v>2.68816274825527</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1828759</v>
@@ -1938,19 +1941,19 @@
         <v>5628633</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1970,37 +1973,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.195775161920462</v>
+        <v>0.627248836593938</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.655172413793103</v>
+        <v>0.681034482758621</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.605</v>
+        <v>7.59</v>
       </c>
       <c r="K21">
-        <v>-0.009217398309016901</v>
+        <v>0.0034863360969387</v>
       </c>
       <c r="L21">
-        <v>-0.0219271445013639</v>
+        <v>-0.0129929111502857</v>
       </c>
       <c r="M21">
-        <v>0.008624557260921</v>
+        <v>0.0240086782342934</v>
       </c>
       <c r="N21">
-        <v>-0.121201818659</v>
+        <v>0.0459332819096008</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1828759</v>
@@ -2009,16 +2012,16 @@
         <v>5628633</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2038,37 +2041,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0027297302589094</v>
+        <v>0.0001295231202566</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.711864406779661</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.24245</v>
+        <v>0.25475</v>
       </c>
       <c r="K22">
-        <v>0.0065877656186475</v>
+        <v>0.006920569446695</v>
       </c>
       <c r="L22">
-        <v>0.0015161804305109</v>
+        <v>0.0034142599096954</v>
       </c>
       <c r="M22">
-        <v>0.0093659370261943</v>
+        <v>0.009444895635173201</v>
       </c>
       <c r="N22">
-        <v>2.71716461895133</v>
+        <v>2.7166121478685</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1828759</v>
@@ -2077,19 +2080,19 @@
         <v>5628633</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2106,40 +2109,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.394695198483535</v>
+        <v>0.0900737281021209</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.38135593220339</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.0012689397992369</v>
       </c>
       <c r="L23">
-        <v>-0.0007726597695445</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0024965823650034</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.396543687261541</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1828759</v>
@@ -2148,19 +2151,19 @@
         <v>5628633</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2174,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.569390812618075</v>
+        <v>0.542522265053813</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2198,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0003840596799639</v>
+        <v>-0.0002859099804305</v>
       </c>
       <c r="M24">
-        <v>0.0003240257851817</v>
+        <v>0.0003332027162968</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1828759</v>
@@ -2219,19 +2222,19 @@
         <v>5628633</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2251,7 +2254,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.6343121150946111</v>
+        <v>0.860529831291456</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2263,25 +2266,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.435</v>
+        <v>1.405</v>
       </c>
       <c r="K25">
-        <v>-0.0089524848107181</v>
+        <v>-0.0295146544553528</v>
       </c>
       <c r="L25">
-        <v>-0.0425058407271046</v>
+        <v>-0.0652232142857143</v>
       </c>
       <c r="M25">
-        <v>0.030103021978022</v>
+        <v>0.0176343903472862</v>
       </c>
       <c r="N25">
-        <v>-0.623866537332278</v>
+        <v>-2.10068714984717</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1828759</v>
@@ -2290,19 +2293,19 @@
         <v>5628633</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2322,37 +2325,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.916138124666129</v>
+        <v>0.993316430976947</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.582352941176471</v>
+        <v>0.558139534883721</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>21.75</v>
+        <v>20.25</v>
       </c>
       <c r="K26">
-        <v>-0.453029416862955</v>
+        <v>-0.82308384121946</v>
       </c>
       <c r="L26">
-        <v>-1.08703805783276</v>
+        <v>-1.44656396780755</v>
       </c>
       <c r="M26">
-        <v>0.0606276068748545</v>
+        <v>-0.248973569038402</v>
       </c>
       <c r="N26">
-        <v>-2.08289387063428</v>
+        <v>-4.06461156157758</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1828759</v>
@@ -2361,19 +2364,19 @@
         <v>5628633</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2393,37 +2396,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.978637180775209</v>
+        <v>0.979366980846698</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.69811320754717</v>
+        <v>0.6932515337423309</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.11</v>
+        <v>10.12</v>
       </c>
       <c r="K27">
-        <v>0.0233138297872339</v>
+        <v>0.0199917898193763</v>
       </c>
       <c r="L27">
-        <v>0.0042693032898617</v>
+        <v>0.0042775584741383</v>
       </c>
       <c r="M27">
-        <v>0.0376396598175848</v>
+        <v>0.0333911549148418</v>
       </c>
       <c r="N27">
-        <v>0.230601679398951</v>
+        <v>0.197547330230991</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1828759</v>
@@ -2432,19 +2435,19 @@
         <v>5628633</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2461,40 +2464,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>0.130553692342183</v>
+        <v>0.499442504947764</v>
       </c>
       <c r="G28">
-        <v>0.006060606060606</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.339393939393939</v>
+        <v>0.313253012048193</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="K28">
-        <v>0.0002852401840603</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0001039922553639</v>
+        <v>-0.0004061748252859</v>
       </c>
       <c r="M28">
-        <v>0.0006795233827459</v>
+        <v>0.0003865079365079</v>
       </c>
       <c r="N28">
-        <v>0.983586841587257</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1828759</v>
@@ -2503,19 +2506,19 @@
         <v>5628633</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2532,16 +2535,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.922887065555036</v>
+        <v>0.538770661548171</v>
       </c>
       <c r="G29">
-        <v>0.0787878787878788</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="H29">
-        <v>0.309090909090909</v>
+        <v>0.307228915662651</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2550,22 +2553,22 @@
         <v>16</v>
       </c>
       <c r="K29">
-        <v>-0.199726772096061</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-1.08810822033867</v>
+        <v>-0.405128058852504</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.250288577888569</v>
       </c>
       <c r="N29">
-        <v>-1.24829232560038</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1828759</v>
@@ -2574,19 +2577,19 @@
         <v>5628633</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2603,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.999998931570714</v>
+        <v>0.999994202307907</v>
       </c>
       <c r="G30">
-        <v>0.870967741935484</v>
+        <v>0.885350318471338</v>
       </c>
       <c r="H30">
-        <v>0.135483870967742</v>
+        <v>0.121019108280255</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2633,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1828759</v>
@@ -2645,19 +2648,19 @@
         <v>5628633</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2674,40 +2677,40 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.9999999899393039</v>
+        <v>0.999999999732908</v>
       </c>
       <c r="G31">
-        <v>0.442307692307692</v>
+        <v>0.487951807228916</v>
       </c>
       <c r="H31">
-        <v>0.102564102564103</v>
+        <v>0.0903614457831325</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="K31">
-        <v>-0.0001564268519155</v>
+        <v>-0.0001129406307977</v>
       </c>
       <c r="L31">
-        <v>-0.0002851288056206</v>
+        <v>-0.0002258812615955</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-7.82134259577687</v>
+        <v>-7.52937538651824</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1828759</v>
@@ -2716,19 +2719,19 @@
         <v>5628633</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2748,34 +2751,34 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.163012019252531</v>
+        <v>0.012335894033742</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.871794871794872</v>
+        <v>0.837349397590361</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.2445</v>
+        <v>0.248</v>
       </c>
       <c r="K32">
-        <v>0.0015542553191489</v>
+        <v>0.0028096153846154</v>
       </c>
       <c r="L32">
-        <v>-0.0011417424627603</v>
+        <v>0.0010003410743542</v>
       </c>
       <c r="M32">
-        <v>0.0039331937560527</v>
+        <v>0.0053887482833662</v>
       </c>
       <c r="N32">
-        <v>0.63568724709568</v>
+        <v>1.1329094292804</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
         <v>45</v>
@@ -2787,19 +2790,19 @@
         <v>5628633</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2819,37 +2822,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.144822161742494</v>
+        <v>0.030233641054869</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.617283950617284</v>
+        <v>0.597560975609756</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.61</v>
+        <v>7.62</v>
       </c>
       <c r="K33">
-        <v>-0.0086517962889854</v>
+        <v>-0.0120793902198938</v>
       </c>
       <c r="L33">
-        <v>-0.0203308990880383</v>
+        <v>-0.0226863354037268</v>
       </c>
       <c r="M33">
-        <v>0.0044414105880404</v>
+        <v>-0.0014403753423919</v>
       </c>
       <c r="N33">
-        <v>-0.113689832969585</v>
+        <v>-0.158522181363436</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33">
         <v>1828759</v>
@@ -2858,16 +2861,16 @@
         <v>5628633</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2887,13 +2890,13 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.153794079609864</v>
+        <v>0.0301134297494618</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.763636363636364</v>
+        <v>0.746987951807229</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2902,19 +2905,19 @@
         <v>0.256</v>
       </c>
       <c r="K34">
-        <v>0.0007604235795037</v>
+        <v>0.0022003012048192</v>
       </c>
       <c r="L34">
-        <v>-0.0011053559533313</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="M34">
-        <v>0.0029949314540368</v>
+        <v>0.0047691676230343</v>
       </c>
       <c r="N34">
-        <v>0.297040460743649</v>
+        <v>0.859492658132531</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
         <v>45</v>
@@ -2926,19 +2929,19 @@
         <v>5628633</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2955,16 +2958,16 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35">
-        <v>0.748439358291379</v>
+        <v>0.614616981632031</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.375757575757576</v>
+        <v>0.36144578313253</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2976,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0022206068783041</v>
+        <v>-0.0015868855370783</v>
       </c>
       <c r="M35">
-        <v>0.0003333058394939</v>
+        <v>0.0009302812153204</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1828759</v>
@@ -2997,19 +3000,19 @@
         <v>5628633</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3026,40 +3029,40 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>0.89217193983746</v>
+        <v>0.685917819122147</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.327272727272727</v>
+        <v>0.301204819277108</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="K36">
-        <v>-0.0002494026427441</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0005017170329669999</v>
+        <v>-0.0003340815078821</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N36">
-        <v>-0.733537184541672</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q36">
         <v>1828759</v>
@@ -3068,19 +3071,19 @@
         <v>5628633</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3100,37 +3103,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.435674721784239</v>
+        <v>0.344042841690095</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.775757575757576</v>
+        <v>0.759036144578313</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="K37">
-        <v>0.0024936880728454</v>
+        <v>0.0074897470950102</v>
       </c>
       <c r="L37">
-        <v>-0.0199626766000346</v>
+        <v>-0.0163901157829978</v>
       </c>
       <c r="M37">
-        <v>0.0211933649383843</v>
+        <v>0.0264631673141788</v>
       </c>
       <c r="N37">
-        <v>0.179402019629166</v>
+        <v>0.563138879324075</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1828759</v>
@@ -3139,19 +3142,19 @@
         <v>5628633</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3171,13 +3174,13 @@
         <v>36</v>
       </c>
       <c r="F38">
-        <v>0.0054660091495841</v>
+        <v>0.0065256487649364</v>
       </c>
       <c r="G38">
-        <v>0.010989010989011</v>
+        <v>0.0103092783505155</v>
       </c>
       <c r="H38">
-        <v>0.307692307692308</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3186,22 +3189,22 @@
         <v>0.028</v>
       </c>
       <c r="K38">
-        <v>0.0004890493496557</v>
+        <v>0.0004227430555555</v>
       </c>
       <c r="L38">
-        <v>0.0001702061053911</v>
+        <v>0.0001328989837266</v>
       </c>
       <c r="M38">
-        <v>0.0008152901785714001</v>
+        <v>0.0007051158301158</v>
       </c>
       <c r="N38">
-        <v>1.74660482019893</v>
+        <v>1.50979662698413</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q38">
         <v>1828759</v>
@@ -3210,19 +3213,19 @@
         <v>5628633</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3239,40 +3242,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F39">
-        <v>0.958189398607231</v>
+        <v>0.831357316401915</v>
       </c>
       <c r="G39">
-        <v>0.0824175824175824</v>
+        <v>0.077319587628866</v>
       </c>
       <c r="H39">
-        <v>0.302197802197802</v>
+        <v>0.34020618556701</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="K39">
-        <v>-0.372957794417971</v>
+        <v>-0.0453952274422073</v>
       </c>
       <c r="L39">
-        <v>-1.00616689360004</v>
+        <v>-0.668956043956044</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>-2.33098621511232</v>
+        <v>-0.254314999676231</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1828759</v>
@@ -3281,19 +3284,19 @@
         <v>5628633</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3310,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.999918000203232</v>
+        <v>0.999857467177353</v>
       </c>
       <c r="G40">
-        <v>0.87719298245614</v>
+        <v>0.879781420765027</v>
       </c>
       <c r="H40">
-        <v>0.128654970760234</v>
+        <v>0.12568306010929</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -3340,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1828759</v>
@@ -3352,19 +3355,19 @@
         <v>5628633</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3384,37 +3387,37 @@
         <v>36</v>
       </c>
       <c r="F41">
-        <v>0.324813742129806</v>
+        <v>0.093691581559408</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.847560975609756</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.2485</v>
+        <v>0.25</v>
       </c>
       <c r="K41">
-        <v>0.0006987089115976</v>
+        <v>0.0014706081127981</v>
       </c>
       <c r="L41">
-        <v>-0.0015487314368698</v>
+        <v>-0.0004311962797614</v>
       </c>
       <c r="M41">
-        <v>0.0021108925038023</v>
+        <v>0.0030059080778859</v>
       </c>
       <c r="N41">
-        <v>0.281170588168052</v>
+        <v>0.5882432451192759</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q41">
         <v>1828759</v>
@@ -3423,19 +3426,19 @@
         <v>5628633</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3455,37 +3458,37 @@
         <v>36</v>
       </c>
       <c r="F42">
-        <v>0.358672877105075</v>
+        <v>0.111464729695263</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.758241758241758</v>
+        <v>0.752577319587629</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.256</v>
+        <v>0.25625</v>
       </c>
       <c r="K42">
-        <v>0.0001999178981937</v>
+        <v>0.0005982256596906</v>
       </c>
       <c r="L42">
-        <v>-0.001560736630834</v>
+        <v>-0.000392829590444</v>
       </c>
       <c r="M42">
-        <v>0.0015177441514293</v>
+        <v>0.0020454161799078</v>
       </c>
       <c r="N42">
-        <v>0.0780929289819377</v>
+        <v>0.233453915976831</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1828759</v>
@@ -3494,19 +3497,19 @@
         <v>5628633</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3526,37 +3529,37 @@
         <v>36</v>
       </c>
       <c r="F43">
-        <v>0.384997302840302</v>
+        <v>0.535400366267465</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.7692307692307691</v>
+        <v>0.752577319587629</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.39</v>
+        <v>1.345</v>
       </c>
       <c r="K43">
-        <v>0.0025085851648351</v>
+        <v>-0.0008335235052487001</v>
       </c>
       <c r="L43">
-        <v>-0.0149814076358446</v>
+        <v>-0.0182573507248017</v>
       </c>
       <c r="M43">
-        <v>0.0200024743365847</v>
+        <v>0.0176376343597869</v>
       </c>
       <c r="N43">
-        <v>0.180473752865839</v>
+        <v>-0.0619720078251855</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q43">
         <v>1828759</v>
@@ -3565,19 +3568,19 @@
         <v>5628633</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
